--- a/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
+++ b/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
@@ -7,18 +7,24 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Fakir" sheetId="1" r:id="rId1"/>
+    <sheet name="24-1" sheetId="3" r:id="rId1"/>
+    <sheet name="40-1" sheetId="2" r:id="rId2"/>
+    <sheet name="Fakir" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakir!$B$6:$Q$129</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Fakir!$A$1:$T$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-1'!$A$6:$R$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'40-1'!$A$6:$R$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fakir!$A$6:$R$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'24-1'!$A$1:$T$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'40-1'!$A$1:$T$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Fakir!$A$1:$T$133</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="119">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -351,6 +357,30 @@
   </si>
   <si>
     <t>12.09.21</t>
+  </si>
+  <si>
+    <t>14.09.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>In Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yarn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lycra </t>
+  </si>
+  <si>
+    <t>rib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject </t>
+  </si>
+  <si>
+    <t>yarn</t>
   </si>
 </sst>
 </file>
@@ -468,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -510,6 +540,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -824,12 +857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1230" activePane="bottomLeft"/>
-      <selection activeCell="C4" sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,91 +887,2031 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6">
+        <v>93855</v>
+      </c>
+      <c r="D7" s="6">
+        <v>96550</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7">
+        <v>24510</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3000</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1541</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1259</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1522</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="8">
+        <v>394</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1568</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1133</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1574</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="8">
+        <v>120</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="8">
+        <v>55</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="8">
+        <f>25+11</f>
+        <v>36</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="10">
+        <f>SUM(K7:K15)</f>
+        <v>3000</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="10">
+        <f>SUM(O7:O15)</f>
+        <v>2997</v>
+      </c>
+      <c r="P16" s="10">
+        <f>SUM(P7:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <f>O16-K16+P16</f>
+        <v>-3</v>
+      </c>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="10">
+        <f>SUM(H7:H16)</f>
+        <v>3000</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="10">
+        <v>3000</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="10">
+        <v>2961</v>
+      </c>
+      <c r="P17" s="10" t="e">
+        <f>+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+P16+#REF!+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q17" s="20">
+        <f>SUM(Q7:Q16)</f>
+        <v>-3</v>
+      </c>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O18" s="16">
+        <f>K17-O17</f>
+        <v>39</v>
+      </c>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="16"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:R6"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="19" max="132" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R49"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6">
+        <v>93813</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4002</v>
+      </c>
+      <c r="H7" s="18">
+        <v>498.96</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="18">
+        <v>498.96</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1541</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="8">
+        <v>128</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6">
+        <v>93813</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4002</v>
+      </c>
+      <c r="H8" s="18">
+        <v>924.21</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="18">
+        <v>924.21</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1552</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="3">
+        <v>171</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6">
+        <v>93813</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="18">
+        <v>74.67</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="18">
+        <v>74.67</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1556</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="3">
+        <v>116</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1568</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="8">
+        <v>424</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1591</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="8">
+        <v>240</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1600</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="8">
+        <v>129</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1605</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="8">
+        <v>136</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1615</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8">
+        <v>55</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1586</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="8">
+        <v>52</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="10">
+        <f>SUM(K7:K15)</f>
+        <v>1497.8400000000001</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="10">
+        <f>SUM(O7:O15)</f>
+        <v>1451</v>
+      </c>
+      <c r="P16" s="10">
+        <f>SUM(P7:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <f>O16-K16+P16</f>
+        <v>-46.840000000000146</v>
+      </c>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6">
+        <v>94411</v>
+      </c>
+      <c r="D17" s="6">
+        <v>96550</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="8">
+        <v>75</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="8">
+        <v>75</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1628</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="8">
+        <v>131</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6">
+        <v>94407</v>
+      </c>
+      <c r="D18" s="6">
+        <v>96550</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="8">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="8">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1634</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="8">
+        <v>209</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6">
+        <v>94411</v>
+      </c>
+      <c r="D19" s="6">
+        <v>96550</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1424.5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1424.5</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1645</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8">
+        <v>152</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6">
+        <v>94407</v>
+      </c>
+      <c r="D20" s="6">
+        <v>96550</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1504.25</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1504.25</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1649</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="8">
+        <v>169</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1663</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="8">
+        <v>322</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1664</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="8">
+        <v>151</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1672</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="8">
+        <v>447</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1672</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="8">
+        <v>28</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1673</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" s="8">
+        <v>4</v>
+      </c>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1684</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1472</v>
+      </c>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="10">
+        <f>SUM(K17:K26)</f>
+        <v>3082.65</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="10">
+        <f>SUM(O17:O26)</f>
+        <v>3085</v>
+      </c>
+      <c r="P27" s="10">
+        <f>SUM(P17:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14">
+        <f>O27-K27+P27</f>
+        <v>2.3499999999999091</v>
+      </c>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6">
+        <v>94415</v>
+      </c>
+      <c r="D28" s="6">
+        <v>96553</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1424.5</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1424.5</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1672</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O28" s="8">
+        <v>398</v>
+      </c>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6">
+        <v>94415</v>
+      </c>
+      <c r="D29" s="6">
+        <v>96550</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="8">
+        <v>74.67</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="8">
+        <v>74.67</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1677</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="8">
+        <v>125</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1683</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O30" s="8">
+        <v>194</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1664</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="8">
+        <v>61</v>
+      </c>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1645</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O32" s="8">
+        <v>41</v>
+      </c>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1634</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O33" s="8">
+        <v>278</v>
+      </c>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1628</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="8">
+        <v>144</v>
+      </c>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1695</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="8">
+        <v>128</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O36" s="8">
+        <v>14.7</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O37" s="8">
+        <v>70</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" s="8">
+        <v>34</v>
+      </c>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O41" s="8">
+        <v>28</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="10">
+        <f>SUM(K28:K35)</f>
+        <v>1499.17</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="10">
+        <f>SUM(O28:O41)</f>
+        <v>1515.7</v>
+      </c>
+      <c r="P42" s="10">
+        <f>SUM(P28:P35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="15">
+        <f>O42-K42+P42</f>
+        <v>16.529999999999973</v>
+      </c>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="10">
+        <f>SUM(H7:H42)</f>
+        <v>6079.66</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="20">
+        <f>SUM(Q7:Q42)</f>
+        <v>-27.960000000000264</v>
+      </c>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q49" s="16"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:R6"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="19" max="132" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R138"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I123" sqref="I123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
@@ -3419,12 +5391,22 @@
       <c r="I87" s="3"/>
       <c r="J87" s="7"/>
       <c r="K87" s="8"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="8"/>
+      <c r="L87" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M87" s="7">
+        <v>1710</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O87" s="8">
+        <v>243</v>
+      </c>
       <c r="P87" s="10"/>
-      <c r="Q87" s="14"/>
+      <c r="Q87" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="R87" s="3"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -3467,7 +5449,7 @@
       <c r="N89" s="11"/>
       <c r="O89" s="10">
         <f>SUM(O80:O88)</f>
-        <v>3373</v>
+        <v>3616</v>
       </c>
       <c r="P89" s="10">
         <f>SUM(P80:P88)</f>
@@ -3475,7 +5457,7 @@
       </c>
       <c r="Q89" s="14">
         <f>O89-K89+P89</f>
-        <v>-1627</v>
+        <v>-1384</v>
       </c>
       <c r="R89" s="3"/>
     </row>
@@ -4407,10 +6389,18 @@
       <c r="I118" s="3"/>
       <c r="J118" s="7"/>
       <c r="K118" s="10"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="8"/>
+      <c r="L118" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M118" s="7">
+        <v>1710</v>
+      </c>
+      <c r="N118" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O118" s="8">
+        <v>132</v>
+      </c>
       <c r="P118" s="10"/>
       <c r="Q118" s="14"/>
       <c r="R118" s="3"/>
@@ -4475,7 +6465,7 @@
       <c r="N121" s="11"/>
       <c r="O121" s="10">
         <f>SUM(O116:O120)</f>
-        <v>283</v>
+        <v>415</v>
       </c>
       <c r="P121" s="10">
         <f>SUM(P116:P120)</f>
@@ -4483,7 +6473,7 @@
       </c>
       <c r="Q121" s="14">
         <f>O121-K121+P121</f>
-        <v>-978.59000000000015</v>
+        <v>-846.59000000000015</v>
       </c>
       <c r="R121" s="3"/>
     </row>
@@ -4710,7 +6700,7 @@
       <c r="N132" s="11"/>
       <c r="O132" s="10">
         <f>+O121+O115+O109+O96+O89+O79+O67+O52+O42+O29</f>
-        <v>20430.099999999999</v>
+        <v>20805.099999999999</v>
       </c>
       <c r="P132" s="10">
         <f>+P121+P115+P109+P96+P89+P79+P67+P52+P42+P29</f>
@@ -4718,14 +6708,14 @@
       </c>
       <c r="Q132" s="20">
         <f>SUM(Q7:Q131)</f>
-        <v>-3260.8500000000004</v>
+        <v>-2885.8500000000004</v>
       </c>
       <c r="R132" s="3"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O133" s="16">
         <f>K132-O132</f>
-        <v>3260.8500000000022</v>
+        <v>2885.8500000000022</v>
       </c>
       <c r="P133" s="16"/>
     </row>
@@ -4736,6 +6726,7 @@
       <c r="Q138" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:R26"/>
   <mergeCells count="6">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>

--- a/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
+++ b/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="24-1" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'40-1'!$A$6:$R$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fakir!$A$6:$R$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'24-1'!$A$1:$T$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'40-1'!$A$1:$T$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'40-1'!$A$1:$T$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Fakir!$A$1:$T$133</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="118">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -374,13 +374,10 @@
     <t xml:space="preserve">lycra </t>
   </si>
   <si>
-    <t>rib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject </t>
-  </si>
-  <si>
     <t>yarn</t>
+  </si>
+  <si>
+    <t>yarn in hand</t>
   </si>
 </sst>
 </file>
@@ -859,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7:K7"/>
     </sheetView>
@@ -1209,7 +1206,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O12" s="8">
         <f>25+11</f>
@@ -1382,11 +1379,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,75 +1875,49 @@
       <c r="H16" s="8"/>
       <c r="I16" s="3"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="10">
+      <c r="K16" s="10"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="8">
+        <v>40</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="10">
         <f>SUM(K7:K15)</f>
         <v>1497.8400000000001</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="10">
-        <f>SUM(O7:O15)</f>
-        <v>1451</v>
-      </c>
-      <c r="P16" s="10">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="10">
+        <f>SUM(O7:O16)</f>
+        <v>1491</v>
+      </c>
+      <c r="P17" s="10">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="14">
-        <f>O16-K16+P16</f>
-        <v>-46.840000000000146</v>
-      </c>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6">
-        <v>94411</v>
-      </c>
-      <c r="D17" s="6">
-        <v>96550</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="8">
-        <v>75</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="8">
-        <v>75</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1628</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="8">
-        <v>131</v>
-      </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="14"/>
+      <c r="Q17" s="14">
+        <f>O17-K17+P17</f>
+        <v>-6.8400000000001455</v>
+      </c>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1957,7 +1928,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="6">
-        <v>94407</v>
+        <v>94411</v>
       </c>
       <c r="D18" s="6">
         <v>96550</v>
@@ -1972,7 +1943,7 @@
         <v>49</v>
       </c>
       <c r="H18" s="8">
-        <v>78.900000000000006</v>
+        <v>75</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>48</v>
@@ -1981,19 +1952,19 @@
         <v>51</v>
       </c>
       <c r="K18" s="8">
-        <v>78.900000000000006</v>
+        <v>75</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="M18" s="7">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O18" s="8">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="14"/>
@@ -2007,22 +1978,22 @@
         <v>28</v>
       </c>
       <c r="C19" s="6">
-        <v>94411</v>
+        <v>94407</v>
       </c>
       <c r="D19" s="6">
         <v>96550</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H19" s="8">
-        <v>1424.5</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>48</v>
@@ -2031,19 +2002,19 @@
         <v>51</v>
       </c>
       <c r="K19" s="8">
-        <v>1424.5</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="7">
-        <v>1645</v>
+        <v>1634</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O19" s="8">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="14"/>
@@ -2057,7 +2028,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="6">
-        <v>94407</v>
+        <v>94411</v>
       </c>
       <c r="D20" s="6">
         <v>96550</v>
@@ -2072,7 +2043,7 @@
         <v>54</v>
       </c>
       <c r="H20" s="8">
-        <v>1504.25</v>
+        <v>1424.5</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>48</v>
@@ -2081,47 +2052,69 @@
         <v>51</v>
       </c>
       <c r="K20" s="8">
-        <v>1504.25</v>
+        <v>1424.5</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O20" s="8">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="6">
+        <v>94407</v>
+      </c>
+      <c r="D21" s="6">
+        <v>96550</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1504.25</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1504.25</v>
+      </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M21" s="7">
-        <v>1663</v>
+        <v>1649</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O21" s="8">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="14"/>
@@ -2140,16 +2133,16 @@
       <c r="J22" s="7"/>
       <c r="K22" s="8"/>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O22" s="8">
-        <v>151</v>
+        <v>322</v>
       </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="14"/>
@@ -2168,16 +2161,16 @@
       <c r="J23" s="7"/>
       <c r="K23" s="8"/>
       <c r="L23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M23" s="7">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O23" s="8">
-        <v>447</v>
+        <v>151</v>
       </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="14"/>
@@ -2205,7 +2198,7 @@
         <v>58</v>
       </c>
       <c r="O24" s="8">
-        <v>28</v>
+        <v>447</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="14"/>
@@ -2227,13 +2220,13 @@
         <v>93</v>
       </c>
       <c r="M25" s="7">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="14"/>
@@ -2252,16 +2245,16 @@
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
       <c r="L26" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O26" s="8">
-        <v>1472</v>
+        <v>4</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="14"/>
@@ -2278,178 +2271,170 @@
       <c r="H27" s="8"/>
       <c r="I27" s="3"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="10">
-        <f>SUM(K17:K26)</f>
-        <v>3082.65</v>
-      </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="10">
-        <f>SUM(O17:O26)</f>
-        <v>3085</v>
-      </c>
-      <c r="P27" s="10">
-        <f>SUM(P17:P26)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="14">
-        <f>O27-K27+P27</f>
-        <v>2.3499999999999091</v>
-      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1684</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O27" s="8">
+        <v>1472</v>
+      </c>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="6">
-        <v>94415</v>
-      </c>
-      <c r="D28" s="6">
-        <v>96553</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1424.5</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="8">
-        <v>1424.5</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1672</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O28" s="8">
-        <v>398</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="10">
+        <f>SUM(K18:K27)</f>
+        <v>3082.65</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="10">
+        <f>SUM(O18:O27)</f>
+        <v>3085</v>
+      </c>
+      <c r="P29" s="10">
+        <f>SUM(P18:P27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <f>O29-K29+P29</f>
+        <v>2.3499999999999091</v>
+      </c>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C30" s="6">
         <v>94415</v>
       </c>
-      <c r="D29" s="6">
-        <v>96550</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="8">
-        <v>74.67</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="D30" s="6">
+        <v>96553</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1424.5</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="8">
-        <v>74.67</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1677</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O29" s="8">
-        <v>125</v>
-      </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="10"/>
+      <c r="J30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1424.5</v>
+      </c>
       <c r="L30" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="M30" s="7">
-        <v>1683</v>
+        <v>1672</v>
       </c>
       <c r="N30" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O30" s="8">
-        <v>194</v>
+        <v>398</v>
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="10"/>
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6">
+        <v>94415</v>
+      </c>
+      <c r="D31" s="6">
+        <v>96550</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="8">
+        <v>74.67</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="8">
+        <v>74.67</v>
+      </c>
       <c r="L31" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="M31" s="7">
-        <v>1664</v>
+        <v>1677</v>
       </c>
       <c r="N31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O31" s="8">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="14"/>
@@ -2468,16 +2453,16 @@
       <c r="J32" s="7"/>
       <c r="K32" s="10"/>
       <c r="L32" s="7" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="M32" s="7">
-        <v>1645</v>
+        <v>1683</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O32" s="8">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="14"/>
@@ -2496,16 +2481,16 @@
       <c r="J33" s="7"/>
       <c r="K33" s="10"/>
       <c r="L33" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M33" s="7">
-        <v>1634</v>
+        <v>1664</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O33" s="8">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="14"/>
@@ -2524,16 +2509,16 @@
       <c r="J34" s="7"/>
       <c r="K34" s="10"/>
       <c r="L34" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M34" s="7">
-        <v>1628</v>
+        <v>1645</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O34" s="8">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="14"/>
@@ -2552,16 +2537,16 @@
       <c r="J35" s="7"/>
       <c r="K35" s="10"/>
       <c r="L35" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="M35" s="7">
-        <v>1695</v>
+        <v>1634</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O35" s="8">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="14"/>
@@ -2579,17 +2564,19 @@
       <c r="I36" s="3"/>
       <c r="J36" s="7"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="L36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1628</v>
+      </c>
       <c r="N36" s="7" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="O36" s="8">
-        <v>14.7</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P36" s="10"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="3"/>
     </row>
@@ -2605,17 +2592,19 @@
       <c r="I37" s="3"/>
       <c r="J37" s="7"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="L37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1695</v>
+      </c>
       <c r="N37" s="7" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="O37" s="8">
-        <v>70</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P37" s="10"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="3"/>
     </row>
@@ -2634,12 +2623,14 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8">
-        <v>34</v>
-      </c>
-      <c r="P38" s="10"/>
+        <v>14.7</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="3"/>
     </row>
@@ -2657,9 +2648,15 @@
       <c r="K39" s="10"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="10"/>
+      <c r="N39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O39" s="8">
+        <v>70</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="3"/>
     </row>
@@ -2697,15 +2694,9 @@
       <c r="K41" s="10"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O41" s="8">
-        <v>28</v>
-      </c>
-      <c r="P41" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="N41" s="7"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="10"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="3"/>
     </row>
@@ -2720,62 +2711,102 @@
       <c r="H42" s="8"/>
       <c r="I42" s="3"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="10">
-        <f>SUM(K28:K35)</f>
-        <v>1499.17</v>
-      </c>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="10">
-        <f>SUM(O28:O41)</f>
-        <v>1515.7</v>
-      </c>
-      <c r="P42" s="10">
-        <f>SUM(P28:P35)</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="15">
-        <f>O42-K42+P42</f>
-        <v>16.529999999999973</v>
-      </c>
+      <c r="K42" s="10"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="14"/>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="13"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="10">
-        <f>SUM(H7:H42)</f>
-        <v>6079.66</v>
-      </c>
+      <c r="H43" s="8"/>
       <c r="I43" s="3"/>
       <c r="J43" s="7"/>
       <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="10"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="8"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="20">
-        <f>SUM(Q7:Q42)</f>
-        <v>-27.960000000000264</v>
-      </c>
+      <c r="Q43" s="14"/>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="10">
+        <f>SUM(K30:K37)</f>
+        <v>1499.17</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="10">
+        <f>SUM(O30:O43)</f>
+        <v>1453.7</v>
+      </c>
+      <c r="P44" s="10">
+        <f>SUM(P30:P37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="15">
+        <f>O44-K44+P44</f>
+        <v>-45.470000000000027</v>
+      </c>
+      <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q45" s="16"/>
-    </row>
-    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q49" s="16"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="10">
+        <f>SUM(H7:H44)</f>
+        <v>6079.66</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="20">
+        <f>SUM(Q7:Q44)</f>
+        <v>-49.960000000000264</v>
+      </c>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="51" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q51" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:R6"/>
@@ -2787,6 +2818,7 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:O5"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -2799,9 +2831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
+++ b/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="120">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>yarn in hand</t>
+  </si>
+  <si>
+    <t>20.19.21</t>
+  </si>
+  <si>
+    <t>19.09.21</t>
   </si>
 </sst>
 </file>
@@ -2831,9 +2837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,10 +5459,18 @@
       <c r="I88" s="3"/>
       <c r="J88" s="7"/>
       <c r="K88" s="8"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="8"/>
+      <c r="L88" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M88" s="7">
+        <v>1730</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O88" s="8">
+        <v>72</v>
+      </c>
       <c r="P88" s="10"/>
       <c r="Q88" s="14"/>
       <c r="R88" s="3"/>
@@ -5481,7 +5495,7 @@
       <c r="N89" s="11"/>
       <c r="O89" s="10">
         <f>SUM(O80:O88)</f>
-        <v>3616</v>
+        <v>3688</v>
       </c>
       <c r="P89" s="10">
         <f>SUM(P80:P88)</f>
@@ -5489,7 +5503,7 @@
       </c>
       <c r="Q89" s="14">
         <f>O89-K89+P89</f>
-        <v>-1384</v>
+        <v>-1312</v>
       </c>
       <c r="R89" s="3"/>
     </row>
@@ -6449,10 +6463,18 @@
       <c r="I119" s="3"/>
       <c r="J119" s="7"/>
       <c r="K119" s="10"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="8"/>
+      <c r="L119" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M119" s="7">
+        <v>1730</v>
+      </c>
+      <c r="N119" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O119" s="8">
+        <v>93</v>
+      </c>
       <c r="P119" s="10"/>
       <c r="Q119" s="14"/>
       <c r="R119" s="3"/>
@@ -6497,7 +6519,7 @@
       <c r="N121" s="11"/>
       <c r="O121" s="10">
         <f>SUM(O116:O120)</f>
-        <v>415</v>
+        <v>508</v>
       </c>
       <c r="P121" s="10">
         <f>SUM(P116:P120)</f>
@@ -6505,7 +6527,7 @@
       </c>
       <c r="Q121" s="14">
         <f>O121-K121+P121</f>
-        <v>-846.59000000000015</v>
+        <v>-753.59000000000015</v>
       </c>
       <c r="R121" s="3"/>
     </row>
@@ -6732,7 +6754,7 @@
       <c r="N132" s="11"/>
       <c r="O132" s="10">
         <f>+O121+O115+O109+O96+O89+O79+O67+O52+O42+O29</f>
-        <v>20805.099999999999</v>
+        <v>20970.099999999999</v>
       </c>
       <c r="P132" s="10">
         <f>+P121+P115+P109+P96+P89+P79+P67+P52+P42+P29</f>
@@ -6740,14 +6762,14 @@
       </c>
       <c r="Q132" s="20">
         <f>SUM(Q7:Q131)</f>
-        <v>-2885.8500000000004</v>
+        <v>-2720.8500000000004</v>
       </c>
       <c r="R132" s="3"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O133" s="16">
         <f>K132-O132</f>
-        <v>2885.8500000000022</v>
+        <v>2720.8500000000022</v>
       </c>
       <c r="P133" s="16"/>
     </row>

--- a/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
+++ b/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
@@ -17,14 +17,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fakir!$A$6:$R$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'24-1'!$A$1:$T$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'40-1'!$A$1:$T$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Fakir!$A$1:$T$133</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Fakir!$A$1:$T$139</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="121">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>19.09.21</t>
+  </si>
+  <si>
+    <t>22.09.21</t>
   </si>
 </sst>
 </file>
@@ -2835,11 +2838,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O89" sqref="O89"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5486,173 +5489,79 @@
       <c r="H89" s="8"/>
       <c r="I89" s="3"/>
       <c r="J89" s="7"/>
-      <c r="K89" s="10">
-        <f>SUM(K80:K88)</f>
-        <v>5000</v>
-      </c>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="10">
-        <f>SUM(O80:O88)</f>
-        <v>3688</v>
-      </c>
-      <c r="P89" s="10">
-        <f>SUM(P80:P88)</f>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="14">
-        <f>O89-K89+P89</f>
-        <v>-1312</v>
-      </c>
+      <c r="K89" s="8"/>
+      <c r="L89" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M89" s="7">
+        <v>1755</v>
+      </c>
+      <c r="N89" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O89" s="8">
+        <v>242</v>
+      </c>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="14"/>
       <c r="R89" s="3"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" s="6">
-        <v>94855</v>
-      </c>
-      <c r="D90" s="6">
-        <v>96907</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H90" s="8">
-        <v>122.24</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K90" s="8">
-        <v>122.24</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M90" s="7">
-        <v>1645</v>
-      </c>
-      <c r="N90" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O90" s="8">
-        <v>93</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="8"/>
       <c r="P90" s="10"/>
       <c r="Q90" s="14"/>
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" s="6">
-        <v>94855</v>
-      </c>
-      <c r="D91" s="6">
-        <v>96907</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G91" s="7">
-        <v>1746</v>
-      </c>
-      <c r="H91" s="8">
-        <v>429.16</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K91" s="8">
-        <v>429.16</v>
-      </c>
-      <c r="L91" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M91" s="7">
-        <v>1649</v>
-      </c>
-      <c r="N91" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O91" s="8">
-        <v>167</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="8"/>
       <c r="P91" s="10"/>
       <c r="Q91" s="14"/>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" s="6">
-        <v>94855</v>
-      </c>
-      <c r="D92" s="6">
-        <v>96907</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H92" s="8">
-        <v>43.89</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K92" s="8">
-        <v>43.89</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M92" s="7">
-        <v>1663</v>
-      </c>
-      <c r="N92" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O92" s="8">
-        <v>266</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="8"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="14"/>
       <c r="R92" s="3"/>
@@ -5669,18 +5578,10 @@
       <c r="I93" s="3"/>
       <c r="J93" s="7"/>
       <c r="K93" s="8"/>
-      <c r="L93" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M93" s="7">
-        <v>1664</v>
-      </c>
-      <c r="N93" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O93" s="8">
-        <v>8</v>
-      </c>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="8"/>
       <c r="P93" s="10"/>
       <c r="Q93" s="14"/>
       <c r="R93" s="3"/>
@@ -5697,18 +5598,10 @@
       <c r="I94" s="3"/>
       <c r="J94" s="7"/>
       <c r="K94" s="8"/>
-      <c r="L94" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M94" s="7">
-        <v>1673</v>
-      </c>
-      <c r="N94" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O94" s="8">
-        <v>27</v>
-      </c>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="8"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="14"/>
       <c r="R94" s="3"/>
@@ -5724,128 +5617,172 @@
       <c r="H95" s="8"/>
       <c r="I95" s="3"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="7" t="s">
+      <c r="K95" s="10">
+        <f>SUM(K80:K88)</f>
+        <v>5000</v>
+      </c>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="10">
+        <f>SUM(O80:O94)</f>
+        <v>3930</v>
+      </c>
+      <c r="P95" s="10">
+        <f>SUM(P80:P94)</f>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="14">
+        <f>O95-K95+P95</f>
+        <v>-1070</v>
+      </c>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="6">
+        <v>94855</v>
+      </c>
+      <c r="D96" s="6">
+        <v>96907</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" s="8">
+        <v>122.24</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K96" s="8">
+        <v>122.24</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M96" s="7">
+        <v>1645</v>
+      </c>
+      <c r="N96" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O96" s="8">
         <v>93</v>
       </c>
-      <c r="M95" s="7">
-        <v>1673</v>
-      </c>
-      <c r="N95" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O95" s="8">
-        <v>34</v>
-      </c>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="10">
-        <f>SUM(K90:K95)</f>
-        <v>595.29</v>
-      </c>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="10">
-        <f>SUM(O90:O95)</f>
-        <v>595</v>
-      </c>
-      <c r="P96" s="10">
-        <f>SUM(P90:P95)</f>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="14">
-        <f>O96-K96+P96</f>
-        <v>-0.28999999999996362</v>
-      </c>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="14"/>
       <c r="R96" s="3"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C97" s="6">
-        <v>95097</v>
+        <v>94855</v>
       </c>
       <c r="D97" s="6">
-        <v>97205</v>
+        <v>96907</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>63</v>
+        <v>80</v>
+      </c>
+      <c r="G97" s="7">
+        <v>1746</v>
       </c>
       <c r="H97" s="8">
-        <v>2500</v>
+        <v>429.16</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K97" s="8">
-        <v>2500</v>
+        <v>429.16</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M97" s="7">
-        <v>1634</v>
+        <v>1649</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O97" s="8">
-        <v>607</v>
+        <v>167</v>
       </c>
       <c r="P97" s="10"/>
       <c r="Q97" s="14"/>
       <c r="R97" s="3"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="8"/>
+      <c r="A98" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="6">
+        <v>94855</v>
+      </c>
+      <c r="D98" s="6">
+        <v>96907</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H98" s="8">
+        <v>43.89</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K98" s="8">
+        <v>43.89</v>
+      </c>
       <c r="L98" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M98" s="7">
-        <v>1645</v>
+        <v>1663</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O98" s="8">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="P98" s="10"/>
       <c r="Q98" s="14"/>
@@ -5864,16 +5801,16 @@
       <c r="J99" s="7"/>
       <c r="K99" s="8"/>
       <c r="L99" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M99" s="7">
-        <v>1645</v>
+        <v>1664</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O99" s="8">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="P99" s="10"/>
       <c r="Q99" s="14"/>
@@ -5892,16 +5829,16 @@
       <c r="J100" s="7"/>
       <c r="K100" s="8"/>
       <c r="L100" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M100" s="7">
-        <v>1649</v>
+        <v>1673</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O100" s="8">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="P100" s="10"/>
       <c r="Q100" s="14"/>
@@ -5918,18 +5855,18 @@
       <c r="H101" s="8"/>
       <c r="I101" s="3"/>
       <c r="J101" s="7"/>
-      <c r="K101" s="8"/>
+      <c r="K101" s="10"/>
       <c r="L101" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M101" s="7">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O101" s="8">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="P101" s="10"/>
       <c r="Q101" s="14"/>
@@ -5946,46 +5883,72 @@
       <c r="H102" s="8"/>
       <c r="I102" s="3"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M102" s="7">
-        <v>1664</v>
-      </c>
-      <c r="N102" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O102" s="8">
-        <v>153</v>
-      </c>
-      <c r="P102" s="10"/>
-      <c r="Q102" s="14"/>
+      <c r="K102" s="10">
+        <f>SUM(K96:K101)</f>
+        <v>595.29</v>
+      </c>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="10">
+        <f>SUM(O96:O101)</f>
+        <v>595</v>
+      </c>
+      <c r="P102" s="10">
+        <f>SUM(P96:P101)</f>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="14">
+        <f>O102-K102+P102</f>
+        <v>-0.28999999999996362</v>
+      </c>
       <c r="R102" s="3"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="8"/>
+      <c r="A103" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="6">
+        <v>95097</v>
+      </c>
+      <c r="D103" s="6">
+        <v>97205</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H103" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K103" s="8">
+        <v>2500</v>
+      </c>
       <c r="L103" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M103" s="7">
-        <v>1672</v>
+        <v>1634</v>
       </c>
       <c r="N103" s="7" t="s">
         <v>70</v>
       </c>
       <c r="O103" s="8">
-        <v>426</v>
+        <v>607</v>
       </c>
       <c r="P103" s="10"/>
       <c r="Q103" s="14"/>
@@ -6004,16 +5967,16 @@
       <c r="J104" s="7"/>
       <c r="K104" s="8"/>
       <c r="L104" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M104" s="7">
-        <v>1677</v>
+        <v>1645</v>
       </c>
       <c r="N104" s="7" t="s">
         <v>70</v>
       </c>
       <c r="O104" s="8">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="P104" s="10"/>
       <c r="Q104" s="14"/>
@@ -6032,16 +5995,16 @@
       <c r="J105" s="7"/>
       <c r="K105" s="8"/>
       <c r="L105" s="7" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="M105" s="7">
-        <v>1695</v>
+        <v>1645</v>
       </c>
       <c r="N105" s="7" t="s">
         <v>70</v>
       </c>
       <c r="O105" s="8">
-        <v>357</v>
+        <v>49</v>
       </c>
       <c r="P105" s="10"/>
       <c r="Q105" s="14"/>
@@ -6059,10 +6022,18 @@
       <c r="I106" s="3"/>
       <c r="J106" s="7"/>
       <c r="K106" s="8"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="8"/>
+      <c r="L106" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M106" s="7">
+        <v>1649</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O106" s="8">
+        <v>242</v>
+      </c>
       <c r="P106" s="10"/>
       <c r="Q106" s="14"/>
       <c r="R106" s="3"/>
@@ -6079,10 +6050,18 @@
       <c r="I107" s="3"/>
       <c r="J107" s="7"/>
       <c r="K107" s="8"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="8"/>
+      <c r="L107" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M107" s="7">
+        <v>1663</v>
+      </c>
+      <c r="N107" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O107" s="8">
+        <v>276</v>
+      </c>
       <c r="P107" s="10"/>
       <c r="Q107" s="14"/>
       <c r="R107" s="3"/>
@@ -6099,10 +6078,18 @@
       <c r="I108" s="3"/>
       <c r="J108" s="7"/>
       <c r="K108" s="8"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="8"/>
+      <c r="L108" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M108" s="7">
+        <v>1664</v>
+      </c>
+      <c r="N108" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O108" s="8">
+        <v>153</v>
+      </c>
       <c r="P108" s="10"/>
       <c r="Q108" s="14"/>
       <c r="R108" s="3"/>
@@ -6118,115 +6105,75 @@
       <c r="H109" s="8"/>
       <c r="I109" s="3"/>
       <c r="J109" s="7"/>
-      <c r="K109" s="10">
-        <f>SUM(K97:K108)</f>
-        <v>2500</v>
-      </c>
-      <c r="L109" s="11"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="11"/>
-      <c r="O109" s="10">
-        <f>SUM(O97:O108)</f>
-        <v>2462</v>
-      </c>
-      <c r="P109" s="10">
-        <f>SUM(P97:P108)</f>
-        <v>0</v>
-      </c>
-      <c r="Q109" s="14">
-        <f>O109-K109+P109</f>
-        <v>-38</v>
-      </c>
+      <c r="K109" s="8"/>
+      <c r="L109" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M109" s="7">
+        <v>1672</v>
+      </c>
+      <c r="N109" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O109" s="8">
+        <v>426</v>
+      </c>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="14"/>
       <c r="R109" s="3"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C110" s="6">
-        <v>95755</v>
-      </c>
-      <c r="D110" s="6">
-        <v>97886</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H110" s="8">
-        <v>1177.47</v>
-      </c>
-      <c r="I110" s="3" t="s">
+      <c r="A110" s="3"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J110" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K110" s="8">
-        <v>1177.47</v>
-      </c>
-      <c r="L110" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="M110" s="7">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O110" s="8">
-        <v>851.1</v>
+        <v>103</v>
       </c>
       <c r="P110" s="10"/>
       <c r="Q110" s="14"/>
       <c r="R110" s="3"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C111" s="6">
-        <v>95755</v>
-      </c>
-      <c r="D111" s="6">
-        <v>97886</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H111" s="8">
-        <v>80.94</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K111" s="8">
-        <v>80.94</v>
-      </c>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="8"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M111" s="7">
+        <v>1695</v>
+      </c>
+      <c r="N111" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O111" s="8">
+        <v>357</v>
+      </c>
       <c r="P111" s="10"/>
       <c r="Q111" s="14"/>
       <c r="R111" s="3"/>
@@ -6303,71 +6250,71 @@
       <c r="I115" s="3"/>
       <c r="J115" s="7"/>
       <c r="K115" s="10">
-        <f>SUM(K110:K114)</f>
-        <v>1258.4100000000001</v>
+        <f>SUM(K103:K114)</f>
+        <v>2500</v>
       </c>
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
       <c r="O115" s="10">
-        <f>SUM(O110:O114)</f>
-        <v>851.1</v>
+        <f>SUM(O103:O114)</f>
+        <v>2462</v>
       </c>
       <c r="P115" s="10">
-        <f>SUM(P110:P114)</f>
+        <f>SUM(P103:P114)</f>
         <v>0</v>
       </c>
       <c r="Q115" s="14">
         <f>O115-K115+P115</f>
-        <v>-407.31000000000006</v>
+        <v>-38</v>
       </c>
       <c r="R115" s="3"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C116" s="6">
-        <v>95715</v>
+        <v>95755</v>
       </c>
       <c r="D116" s="6">
-        <v>97846</v>
+        <v>97886</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H116" s="8">
-        <v>74.67</v>
+        <v>1177.47</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>97</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K116" s="8">
-        <v>74.67</v>
+        <v>1177.47</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M116" s="7">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="O116" s="8">
-        <v>218</v>
+        <v>851.1</v>
       </c>
       <c r="P116" s="10"/>
       <c r="Q116" s="14"/>
@@ -6375,50 +6322,42 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C117" s="6">
-        <v>95715</v>
+        <v>95755</v>
       </c>
       <c r="D117" s="6">
-        <v>97846</v>
+        <v>97886</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H117" s="8">
-        <v>1186.92</v>
+        <v>80.94</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>97</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K117" s="8">
-        <v>1186.92</v>
-      </c>
-      <c r="L117" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M117" s="7">
-        <v>1702</v>
-      </c>
-      <c r="N117" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O117" s="8">
-        <v>65</v>
-      </c>
+        <v>80.94</v>
+      </c>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="8"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="14"/>
       <c r="R117" s="3"/>
@@ -6434,19 +6373,11 @@
       <c r="H118" s="8"/>
       <c r="I118" s="3"/>
       <c r="J118" s="7"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M118" s="7">
-        <v>1710</v>
-      </c>
-      <c r="N118" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O118" s="8">
-        <v>132</v>
-      </c>
+      <c r="K118" s="8"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="8"/>
       <c r="P118" s="10"/>
       <c r="Q118" s="14"/>
       <c r="R118" s="3"/>
@@ -6462,19 +6393,11 @@
       <c r="H119" s="8"/>
       <c r="I119" s="3"/>
       <c r="J119" s="7"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M119" s="7">
-        <v>1730</v>
-      </c>
-      <c r="N119" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O119" s="8">
-        <v>93</v>
-      </c>
+      <c r="K119" s="8"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="8"/>
       <c r="P119" s="10"/>
       <c r="Q119" s="14"/>
       <c r="R119" s="3"/>
@@ -6490,7 +6413,7 @@
       <c r="H120" s="8"/>
       <c r="I120" s="3"/>
       <c r="J120" s="7"/>
-      <c r="K120" s="10"/>
+      <c r="K120" s="8"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
@@ -6512,14 +6435,14 @@
       <c r="J121" s="7"/>
       <c r="K121" s="10">
         <f>SUM(K116:K120)</f>
-        <v>1261.5900000000001</v>
+        <v>1258.4100000000001</v>
       </c>
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
       <c r="N121" s="11"/>
       <c r="O121" s="10">
         <f>SUM(O116:O120)</f>
-        <v>508</v>
+        <v>851.1</v>
       </c>
       <c r="P121" s="10">
         <f>SUM(P116:P120)</f>
@@ -6527,46 +6450,106 @@
       </c>
       <c r="Q121" s="14">
         <f>O121-K121+P121</f>
-        <v>-753.59000000000015</v>
+        <v>-407.31000000000006</v>
       </c>
       <c r="R121" s="3"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
-      <c r="O122" s="10"/>
+      <c r="A122" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C122" s="6">
+        <v>95715</v>
+      </c>
+      <c r="D122" s="6">
+        <v>97846</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H122" s="8">
+        <v>74.67</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K122" s="8">
+        <v>74.67</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M122" s="7">
+        <v>1695</v>
+      </c>
+      <c r="N122" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O122" s="8">
+        <v>218</v>
+      </c>
       <c r="P122" s="10"/>
       <c r="Q122" s="14"/>
       <c r="R122" s="3"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="11"/>
-      <c r="O123" s="10"/>
+      <c r="A123" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" s="6">
+        <v>95715</v>
+      </c>
+      <c r="D123" s="6">
+        <v>97846</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H123" s="8">
+        <v>1186.92</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K123" s="8">
+        <v>1186.92</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M123" s="7">
+        <v>1702</v>
+      </c>
+      <c r="N123" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O123" s="8">
+        <v>65</v>
+      </c>
       <c r="P123" s="10"/>
       <c r="Q123" s="14"/>
       <c r="R123" s="3"/>
@@ -6582,11 +6565,19 @@
       <c r="H124" s="8"/>
       <c r="I124" s="3"/>
       <c r="J124" s="7"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="11"/>
-      <c r="O124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M124" s="7">
+        <v>1710</v>
+      </c>
+      <c r="N124" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O124" s="8">
+        <v>132</v>
+      </c>
       <c r="P124" s="10"/>
       <c r="Q124" s="14"/>
       <c r="R124" s="3"/>
@@ -6602,11 +6593,19 @@
       <c r="H125" s="8"/>
       <c r="I125" s="3"/>
       <c r="J125" s="7"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
-      <c r="N125" s="11"/>
-      <c r="O125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M125" s="7">
+        <v>1730</v>
+      </c>
+      <c r="N125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O125" s="8">
+        <v>93</v>
+      </c>
       <c r="P125" s="10"/>
       <c r="Q125" s="14"/>
       <c r="R125" s="3"/>
@@ -6622,13 +6621,21 @@
       <c r="H126" s="8"/>
       <c r="I126" s="3"/>
       <c r="J126" s="7"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="Q126" s="3"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M126" s="7">
+        <v>1755</v>
+      </c>
+      <c r="N126" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O126" s="8">
+        <v>246</v>
+      </c>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="14"/>
       <c r="R126" s="3"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -6642,13 +6649,25 @@
       <c r="H127" s="8"/>
       <c r="I127" s="3"/>
       <c r="J127" s="7"/>
-      <c r="K127" s="8"/>
+      <c r="K127" s="10">
+        <f>SUM(K122:K126)</f>
+        <v>1261.5900000000001</v>
+      </c>
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
-      <c r="O127" s="10"/>
-      <c r="P127" s="10"/>
-      <c r="Q127" s="12"/>
+      <c r="O127" s="10">
+        <f>SUM(O122:O126)</f>
+        <v>754</v>
+      </c>
+      <c r="P127" s="10">
+        <f>SUM(P122:P126)</f>
+        <v>0</v>
+      </c>
+      <c r="Q127" s="14">
+        <f>O127-K127+P127</f>
+        <v>-507.59000000000015</v>
+      </c>
       <c r="R127" s="3"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -6663,12 +6682,12 @@
       <c r="I128" s="3"/>
       <c r="J128" s="7"/>
       <c r="K128" s="8"/>
-      <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="3"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="14"/>
       <c r="R128" s="3"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -6683,21 +6702,21 @@
       <c r="I129" s="3"/>
       <c r="J129" s="7"/>
       <c r="K129" s="8"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="8"/>
-      <c r="P129" s="8"/>
-      <c r="Q129" s="3"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="10"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="14"/>
       <c r="R129" s="3"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
       <c r="E130" s="7"/>
-      <c r="F130" s="13"/>
+      <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="8"/>
       <c r="I130" s="3"/>
@@ -6708,16 +6727,16 @@
       <c r="N130" s="11"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
-      <c r="Q130" s="15"/>
+      <c r="Q130" s="14"/>
       <c r="R130" s="3"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="13"/>
+      <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="8"/>
       <c r="I131" s="3"/>
@@ -6728,56 +6747,176 @@
       <c r="N131" s="11"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
-      <c r="Q131" s="15"/>
+      <c r="Q131" s="14"/>
       <c r="R131" s="3"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
       <c r="E132" s="7"/>
-      <c r="F132" s="13"/>
+      <c r="F132" s="7"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="10">
-        <f>SUM(H7:H131)</f>
-        <v>23690.949999999997</v>
-      </c>
+      <c r="H132" s="8"/>
       <c r="I132" s="3"/>
       <c r="J132" s="7"/>
-      <c r="K132" s="10">
-        <f>+K121+K115+K109+K96+K89+K79+K67+K52+K42+K29</f>
+      <c r="K132" s="8"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="3"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="3"/>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="10"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="15"/>
+      <c r="R137" s="3"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="10">
+        <f>SUM(H7:H137)</f>
+        <v>23690.949999999997</v>
+      </c>
+      <c r="I138" s="3"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="10">
+        <f>+K127+K121+K115+K102+K95+K79+K67+K52+K42+K29</f>
         <v>23690.95</v>
       </c>
-      <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="11"/>
-      <c r="O132" s="10">
-        <f>+O121+O115+O109+O96+O89+O79+O67+O52+O42+O29</f>
-        <v>20970.099999999999</v>
-      </c>
-      <c r="P132" s="10">
-        <f>+P121+P115+P109+P96+P89+P79+P67+P52+P42+P29</f>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="10">
+        <f>+O127+O121+O115+O102+O95+O79+O67+O52+O42+O29</f>
+        <v>21458.1</v>
+      </c>
+      <c r="P138" s="10">
+        <f>+P127+P121+P115+P102+P95+P79+P67+P52+P42+P29</f>
         <v>0</v>
       </c>
-      <c r="Q132" s="20">
-        <f>SUM(Q7:Q131)</f>
-        <v>-2720.8500000000004</v>
-      </c>
-      <c r="R132" s="3"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O133" s="16">
-        <f>K132-O132</f>
-        <v>2720.8500000000022</v>
-      </c>
-      <c r="P133" s="16"/>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q134" s="16"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q138" s="16"/>
+      <c r="Q138" s="20">
+        <f>SUM(Q7:Q137)</f>
+        <v>-2232.8500000000004</v>
+      </c>
+      <c r="R138" s="3"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O139" s="16">
+        <f>K138-O138</f>
+        <v>2232.8500000000022</v>
+      </c>
+      <c r="P139" s="16"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q140" s="16"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q144" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:R26"/>

--- a/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
+++ b/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
@@ -15,16 +15,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24-1'!$A$6:$R$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'40-1'!$A$6:$R$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fakir!$A$6:$R$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'24-1'!$A$1:$T$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'24-1'!$A$1:$T$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'40-1'!$A$1:$T$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Fakir!$A$1:$T$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Fakir!$A$1:$T$146</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="124">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -365,15 +365,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>In Hand</t>
-  </si>
-  <si>
     <t xml:space="preserve">yarn  </t>
   </si>
   <si>
-    <t xml:space="preserve">lycra </t>
-  </si>
-  <si>
     <t>yarn</t>
   </si>
   <si>
@@ -387,6 +381,21 @@
   </si>
   <si>
     <t>22.09.21</t>
+  </si>
+  <si>
+    <t>23.09.21</t>
+  </si>
+  <si>
+    <t>25.09.21</t>
+  </si>
+  <si>
+    <t>ly yarn</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>26.09.21</t>
   </si>
 </sst>
 </file>
@@ -863,11 +872,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:K7"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,14 +1227,13 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O12" s="8">
-        <f>25+11</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="3"/>
@@ -1289,81 +1300,230 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="10">
+        <f>SUM(H7:H15)</f>
+        <v>3000</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="7"/>
       <c r="K16" s="10">
-        <f>SUM(K7:K15)</f>
         <v>3000</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="10">
-        <f>SUM(O7:O15)</f>
-        <v>2997</v>
+        <v>2961</v>
       </c>
       <c r="P16" s="10">
-        <f>SUM(P7:P15)</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="20">
+        <f>SUM(Q7:Q15)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="14">
-        <f>O16-K16+P16</f>
-        <v>-3</v>
-      </c>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="10">
-        <f>SUM(H7:H16)</f>
-        <v>3000</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="10">
-        <v>3000</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="10">
-        <v>2961</v>
-      </c>
-      <c r="P17" s="10" t="e">
-        <f>+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+P16+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q17" s="20">
-        <f>SUM(Q7:Q16)</f>
-        <v>-3</v>
-      </c>
-      <c r="R17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="6">
+        <v>95755</v>
+      </c>
+      <c r="D17" s="6">
+        <v>97886</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1177.47</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1177.47</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1685</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="8">
+        <v>851.1</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O18" s="16">
-        <f>K17-O17</f>
-        <v>39</v>
-      </c>
-      <c r="P18" s="16"/>
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="6">
+        <v>95755</v>
+      </c>
+      <c r="D18" s="6">
+        <v>97886</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="8">
+        <v>80.94</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="8">
+        <v>80.94</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1762</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="8">
+        <v>407</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q23" s="16"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="10">
+        <f>SUM(K17:K21)</f>
+        <v>1258.4100000000001</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="10">
+        <f>SUM(O17:O21)</f>
+        <v>1258.0999999999999</v>
+      </c>
+      <c r="P22" s="10">
+        <f>SUM(P17:P21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <f>O22-K22+P22</f>
+        <v>-0.3100000000001728</v>
+      </c>
+      <c r="R22" s="10">
+        <f>SUM(R17:R21)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A6:R6"/>
@@ -1375,8 +1535,9 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:O5"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="132" man="1"/>
   </colBreaks>
@@ -1390,9 +1551,9 @@
   </sheetPr>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,7 +2049,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O16" s="8">
         <v>40</v>
@@ -2629,17 +2790,19 @@
       <c r="I38" s="3"/>
       <c r="J38" s="7"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="L38" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1762</v>
+      </c>
       <c r="N38" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8">
-        <v>14.7</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="P38" s="10"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="3"/>
     </row>
@@ -2655,17 +2818,19 @@
       <c r="I39" s="3"/>
       <c r="J39" s="7"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="L39" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1762</v>
+      </c>
       <c r="N39" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8">
-        <v>70</v>
-      </c>
-      <c r="P39" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>57.5</v>
+      </c>
+      <c r="P39" s="10"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="3"/>
     </row>
@@ -2681,10 +2846,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="7"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="8"/>
+      <c r="L40" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1761</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="8">
+        <v>36</v>
+      </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="3"/>
@@ -2769,7 +2942,7 @@
       <c r="N44" s="11"/>
       <c r="O44" s="10">
         <f>SUM(O30:O43)</f>
-        <v>1453.7</v>
+        <v>1477.5</v>
       </c>
       <c r="P44" s="10">
         <f>SUM(P30:P37)</f>
@@ -2777,7 +2950,7 @@
       </c>
       <c r="Q44" s="15">
         <f>O44-K44+P44</f>
-        <v>-45.470000000000027</v>
+        <v>-21.670000000000073</v>
       </c>
       <c r="R44" s="3"/>
     </row>
@@ -2803,7 +2976,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="20">
         <f>SUM(Q7:Q44)</f>
-        <v>-49.960000000000264</v>
+        <v>-26.160000000000309</v>
       </c>
       <c r="R45" s="3"/>
     </row>
@@ -2838,11 +3011,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R144"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
+      <pane ySplit="6" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116:Q121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5122,10 +5295,18 @@
       <c r="I76" s="3"/>
       <c r="J76" s="7"/>
       <c r="K76" s="10"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="8"/>
+      <c r="L76" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M76" s="7">
+        <v>1761</v>
+      </c>
+      <c r="N76" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O76" s="8">
+        <v>36</v>
+      </c>
       <c r="P76" s="10"/>
       <c r="Q76" s="14"/>
       <c r="R76" s="3"/>
@@ -5190,7 +5371,7 @@
       <c r="N79" s="11"/>
       <c r="O79" s="10">
         <f>SUM(O68:O78)</f>
-        <v>1369</v>
+        <v>1405</v>
       </c>
       <c r="P79" s="10">
         <f>SUM(P68:P78)</f>
@@ -5198,7 +5379,7 @@
       </c>
       <c r="Q79" s="15">
         <f>O79-K79+P79</f>
-        <v>-130.17000000000007</v>
+        <v>-94.170000000000073</v>
       </c>
       <c r="R79" s="3"/>
     </row>
@@ -5463,7 +5644,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="8"/>
       <c r="L88" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M88" s="7">
         <v>1730</v>
@@ -5491,7 +5672,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="8"/>
       <c r="L89" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M89" s="7">
         <v>1755</v>
@@ -5518,10 +5699,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="7"/>
       <c r="K90" s="8"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="8"/>
+      <c r="L90" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M90" s="7">
+        <v>1758</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O90" s="8">
+        <v>104</v>
+      </c>
       <c r="P90" s="10"/>
       <c r="Q90" s="14"/>
       <c r="R90" s="3"/>
@@ -5538,10 +5727,18 @@
       <c r="I91" s="3"/>
       <c r="J91" s="7"/>
       <c r="K91" s="8"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="8"/>
+      <c r="L91" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M91" s="7">
+        <v>1761</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O91" s="8">
+        <v>123</v>
+      </c>
       <c r="P91" s="10"/>
       <c r="Q91" s="14"/>
       <c r="R91" s="3"/>
@@ -5626,7 +5823,7 @@
       <c r="N95" s="11"/>
       <c r="O95" s="10">
         <f>SUM(O80:O94)</f>
-        <v>3930</v>
+        <v>4157</v>
       </c>
       <c r="P95" s="10">
         <f>SUM(P80:P94)</f>
@@ -5634,7 +5831,7 @@
       </c>
       <c r="Q95" s="14">
         <f>O95-K95+P95</f>
-        <v>-1070</v>
+        <v>-843</v>
       </c>
       <c r="R95" s="3"/>
     </row>
@@ -6354,10 +6551,18 @@
       <c r="K117" s="8">
         <v>80.94</v>
       </c>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="8"/>
+      <c r="L117" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M117" s="7">
+        <v>1762</v>
+      </c>
+      <c r="N117" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O117" s="8">
+        <v>407</v>
+      </c>
       <c r="P117" s="10"/>
       <c r="Q117" s="14"/>
       <c r="R117" s="3"/>
@@ -6442,7 +6647,7 @@
       <c r="N121" s="11"/>
       <c r="O121" s="10">
         <f>SUM(O116:O120)</f>
-        <v>851.1</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="P121" s="10">
         <f>SUM(P116:P120)</f>
@@ -6450,7 +6655,7 @@
       </c>
       <c r="Q121" s="14">
         <f>O121-K121+P121</f>
-        <v>-407.31000000000006</v>
+        <v>-0.3100000000001728</v>
       </c>
       <c r="R121" s="3"/>
     </row>
@@ -6595,7 +6800,7 @@
       <c r="J125" s="7"/>
       <c r="K125" s="10"/>
       <c r="L125" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M125" s="7">
         <v>1730</v>
@@ -6623,7 +6828,7 @@
       <c r="J126" s="7"/>
       <c r="K126" s="10"/>
       <c r="L126" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M126" s="7">
         <v>1755</v>
@@ -6649,25 +6854,21 @@
       <c r="H127" s="8"/>
       <c r="I127" s="3"/>
       <c r="J127" s="7"/>
-      <c r="K127" s="10">
-        <f>SUM(K122:K126)</f>
-        <v>1261.5900000000001</v>
-      </c>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
-      <c r="O127" s="10">
-        <f>SUM(O122:O126)</f>
-        <v>754</v>
-      </c>
-      <c r="P127" s="10">
-        <f>SUM(P122:P126)</f>
-        <v>0</v>
-      </c>
-      <c r="Q127" s="14">
-        <f>O127-K127+P127</f>
-        <v>-507.59000000000015</v>
-      </c>
+      <c r="K127" s="10"/>
+      <c r="L127" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M127" s="7">
+        <v>1756</v>
+      </c>
+      <c r="N127" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O127" s="8">
+        <v>100</v>
+      </c>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="14"/>
       <c r="R127" s="3"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -6681,11 +6882,20 @@
       <c r="H128" s="8"/>
       <c r="I128" s="3"/>
       <c r="J128" s="7"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
-      <c r="O128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M128" s="7">
+        <v>1761</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O128" s="8">
+        <f>31+14</f>
+        <v>45</v>
+      </c>
       <c r="P128" s="10"/>
       <c r="Q128" s="14"/>
       <c r="R128" s="3"/>
@@ -6701,11 +6911,11 @@
       <c r="H129" s="8"/>
       <c r="I129" s="3"/>
       <c r="J129" s="7"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
-      <c r="O129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="8"/>
       <c r="P129" s="10"/>
       <c r="Q129" s="14"/>
       <c r="R129" s="3"/>
@@ -6721,11 +6931,11 @@
       <c r="H130" s="8"/>
       <c r="I130" s="3"/>
       <c r="J130" s="7"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11"/>
-      <c r="O130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="8"/>
       <c r="P130" s="10"/>
       <c r="Q130" s="14"/>
       <c r="R130" s="3"/>
@@ -6741,11 +6951,11 @@
       <c r="H131" s="8"/>
       <c r="I131" s="3"/>
       <c r="J131" s="7"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="11"/>
-      <c r="O131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="8"/>
       <c r="P131" s="10"/>
       <c r="Q131" s="14"/>
       <c r="R131" s="3"/>
@@ -6761,13 +6971,13 @@
       <c r="H132" s="8"/>
       <c r="I132" s="3"/>
       <c r="J132" s="7"/>
-      <c r="K132" s="8"/>
+      <c r="K132" s="10"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
       <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="Q132" s="3"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="14"/>
       <c r="R132" s="3"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -6781,13 +6991,13 @@
       <c r="H133" s="8"/>
       <c r="I133" s="3"/>
       <c r="J133" s="7"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
-      <c r="O133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="8"/>
       <c r="P133" s="10"/>
-      <c r="Q133" s="12"/>
+      <c r="Q133" s="14"/>
       <c r="R133" s="3"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -6801,13 +7011,25 @@
       <c r="H134" s="8"/>
       <c r="I134" s="3"/>
       <c r="J134" s="7"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="8"/>
-      <c r="P134" s="8"/>
-      <c r="Q134" s="3"/>
+      <c r="K134" s="10">
+        <f>SUM(K122:K126)</f>
+        <v>1261.5900000000001</v>
+      </c>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="10">
+        <f>SUM(O122:O133)</f>
+        <v>899</v>
+      </c>
+      <c r="P134" s="10">
+        <f>SUM(P122:P133)</f>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="14">
+        <f>O134-K134+P134</f>
+        <v>-362.59000000000015</v>
+      </c>
       <c r="R134" s="3"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -6822,21 +7044,21 @@
       <c r="I135" s="3"/>
       <c r="J135" s="7"/>
       <c r="K135" s="8"/>
-      <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="8"/>
-      <c r="P135" s="8"/>
-      <c r="Q135" s="3"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="14"/>
       <c r="R135" s="3"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="7"/>
-      <c r="F136" s="13"/>
+      <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="8"/>
       <c r="I136" s="3"/>
@@ -6847,16 +7069,16 @@
       <c r="N136" s="11"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
-      <c r="Q136" s="15"/>
+      <c r="Q136" s="14"/>
       <c r="R136" s="3"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="7"/>
-      <c r="F137" s="13"/>
+      <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="8"/>
       <c r="I137" s="3"/>
@@ -6867,56 +7089,196 @@
       <c r="N137" s="11"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
-      <c r="Q137" s="15"/>
+      <c r="Q137" s="14"/>
       <c r="R137" s="3"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="13"/>
+      <c r="F138" s="7"/>
       <c r="G138" s="7"/>
-      <c r="H138" s="10">
-        <f>SUM(H7:H137)</f>
-        <v>23690.949999999997</v>
-      </c>
+      <c r="H138" s="8"/>
       <c r="I138" s="3"/>
       <c r="J138" s="7"/>
-      <c r="K138" s="10">
-        <f>+K127+K121+K115+K102+K95+K79+K67+K52+K42+K29</f>
-        <v>23690.95</v>
-      </c>
+      <c r="K138" s="8"/>
       <c r="L138" s="11"/>
       <c r="M138" s="11"/>
       <c r="N138" s="11"/>
-      <c r="O138" s="10">
-        <f>+O127+O121+O115+O102+O95+O79+O67+O52+O42+O29</f>
-        <v>21458.1</v>
-      </c>
-      <c r="P138" s="10">
-        <f>+P127+P121+P115+P102+P95+P79+P67+P52+P42+P29</f>
+      <c r="O138" s="10"/>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="14"/>
+      <c r="R138" s="3"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="10"/>
+      <c r="P140" s="10"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="3"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="10"/>
+      <c r="P143" s="10"/>
+      <c r="Q143" s="15"/>
+      <c r="R143" s="3"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="10"/>
+      <c r="P144" s="10"/>
+      <c r="Q144" s="15"/>
+      <c r="R144" s="3"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="10">
+        <f>SUM(H7:H144)</f>
+        <v>23690.949999999997</v>
+      </c>
+      <c r="I145" s="3"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="10">
+        <f>+K134+K121+K115+K102+K95+K79+K67+K52+K42+K29</f>
+        <v>23690.95</v>
+      </c>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="10">
+        <f>+O134+O121+O115+O102+O95+O79+O67+O52+O42+O29</f>
+        <v>22273.1</v>
+      </c>
+      <c r="P145" s="10">
+        <f>+P134+P121+P115+P102+P95+P79+P67+P52+P42+P29</f>
         <v>0</v>
       </c>
-      <c r="Q138" s="20">
-        <f>SUM(Q7:Q137)</f>
-        <v>-2232.8500000000004</v>
-      </c>
-      <c r="R138" s="3"/>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O139" s="16">
-        <f>K138-O138</f>
-        <v>2232.8500000000022</v>
-      </c>
-      <c r="P139" s="16"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q140" s="16"/>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q144" s="16"/>
+      <c r="Q145" s="20">
+        <f>SUM(Q7:Q144)</f>
+        <v>-1417.8500000000006</v>
+      </c>
+      <c r="R145" s="3"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O146" s="16">
+        <f>K145-O145</f>
+        <v>1417.8500000000022</v>
+      </c>
+      <c r="P146" s="16"/>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q147" s="16"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q151" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:R26"/>

--- a/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
+++ b/Old Order Summary Acc/Fakir Fashion LTD/Fakir Fashion.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Store Documents\2021\Old Order Summary Acc\Fakir Fashion LTD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
@@ -17,14 +22,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fakir!$A$6:$R$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'24-1'!$A$1:$T$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'40-1'!$A$1:$T$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Fakir!$A$1:$T$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Fakir!$A$1:$T$140</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="125">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -396,17 +401,19 @@
   </si>
   <si>
     <t>26.09.21</t>
+  </si>
+  <si>
+    <t>18.09.21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -513,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -540,11 +547,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,6 +586,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -628,7 +637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -905,92 +914,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="22"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
         <v>5</v>
@@ -1054,7 +1063,7 @@
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="6">
@@ -1097,7 +1106,7 @@
         <v>1259</v>
       </c>
       <c r="P7" s="10"/>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1125,7 +1134,7 @@
         <v>394</v>
       </c>
       <c r="P8" s="10"/>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1153,7 +1162,7 @@
         <v>1133</v>
       </c>
       <c r="P9" s="10"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="13"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1181,7 +1190,7 @@
         <v>120</v>
       </c>
       <c r="P10" s="10"/>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="13"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1209,7 +1218,7 @@
         <v>55</v>
       </c>
       <c r="P11" s="10"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1235,7 +1244,7 @@
       <c r="P12" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1255,7 +1264,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="8"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="13"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1275,7 +1284,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="8"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="13"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1295,7 +1304,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="8"/>
       <c r="P15" s="10"/>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1304,7 +1313,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="7"/>
       <c r="H16" s="10">
         <f>SUM(H7:H15)</f>
@@ -1324,7 +1333,7 @@
       <c r="P16" s="10">
         <v>1</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="19">
         <f>SUM(Q7:Q15)</f>
         <v>0</v>
       </c>
@@ -1377,8 +1386,8 @@
         <v>851.1</v>
       </c>
       <c r="P17" s="10"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1427,8 +1436,8 @@
         <v>407</v>
       </c>
       <c r="P18" s="10"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1447,7 +1456,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="8"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="10"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1467,7 +1476,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="8"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="14"/>
+      <c r="Q20" s="13"/>
       <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1487,7 +1496,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="8"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="14"/>
+      <c r="Q21" s="13"/>
       <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1516,7 +1525,7 @@
         <f>SUM(P17:P21)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="13">
         <f>O22-K22+P22</f>
         <v>-0.3100000000001728</v>
       </c>
@@ -1551,9 +1560,9 @@
   </sheetPr>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,92 +1588,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="22"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
         <v>5</v>
@@ -1734,7 +1743,9 @@
       <c r="C7" s="6">
         <v>93813</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>95912</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
@@ -1744,7 +1755,7 @@
       <c r="G7" s="7">
         <v>4002</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>498.96</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -1753,7 +1764,7 @@
       <c r="J7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>498.96</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -1769,7 +1780,7 @@
         <v>128</v>
       </c>
       <c r="P7" s="10"/>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1792,7 +1803,7 @@
       <c r="G8" s="7">
         <v>4002</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>924.21</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -1801,7 +1812,7 @@
       <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <v>924.21</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -1817,7 +1828,7 @@
         <v>171</v>
       </c>
       <c r="P8" s="10"/>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1838,7 +1849,7 @@
       <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>74.67</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1847,7 +1858,7 @@
       <c r="J9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <v>74.67</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1863,7 +1874,7 @@
         <v>116</v>
       </c>
       <c r="P9" s="10"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="13"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1891,7 +1902,7 @@
         <v>424</v>
       </c>
       <c r="P10" s="10"/>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="13"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1919,7 +1930,7 @@
         <v>240</v>
       </c>
       <c r="P11" s="10"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1947,7 +1958,7 @@
         <v>129</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1975,7 +1986,7 @@
         <v>136</v>
       </c>
       <c r="P13" s="10"/>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="13"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -2003,7 +2014,7 @@
         <v>55</v>
       </c>
       <c r="P14" s="10"/>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="13"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2031,7 +2042,7 @@
         <v>52</v>
       </c>
       <c r="P15" s="10"/>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2051,11 +2062,9 @@
       <c r="N16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O16" s="8">
-        <v>40</v>
-      </c>
+      <c r="O16" s="8"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2078,15 +2087,15 @@
       <c r="N17" s="11"/>
       <c r="O17" s="10">
         <f>SUM(O7:O16)</f>
-        <v>1491</v>
+        <v>1451</v>
       </c>
       <c r="P17" s="10">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="13">
         <f>O17-K17+P17</f>
-        <v>-6.8400000000001455</v>
+        <v>-46.840000000000146</v>
       </c>
       <c r="R17" s="3"/>
     </row>
@@ -2137,7 +2146,7 @@
         <v>131</v>
       </c>
       <c r="P18" s="10"/>
-      <c r="Q18" s="14"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2187,7 +2196,7 @@
         <v>209</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2237,7 +2246,7 @@
         <v>152</v>
       </c>
       <c r="P20" s="10"/>
-      <c r="Q20" s="14"/>
+      <c r="Q20" s="13"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2287,7 +2296,7 @@
         <v>169</v>
       </c>
       <c r="P21" s="10"/>
-      <c r="Q21" s="14"/>
+      <c r="Q21" s="13"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2315,7 +2324,7 @@
         <v>322</v>
       </c>
       <c r="P22" s="10"/>
-      <c r="Q22" s="14"/>
+      <c r="Q22" s="13"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2343,7 +2352,7 @@
         <v>151</v>
       </c>
       <c r="P23" s="10"/>
-      <c r="Q23" s="14"/>
+      <c r="Q23" s="13"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2371,7 +2380,7 @@
         <v>447</v>
       </c>
       <c r="P24" s="10"/>
-      <c r="Q24" s="14"/>
+      <c r="Q24" s="13"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2399,7 +2408,7 @@
         <v>28</v>
       </c>
       <c r="P25" s="10"/>
-      <c r="Q25" s="14"/>
+      <c r="Q25" s="13"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2427,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="10"/>
-      <c r="Q26" s="14"/>
+      <c r="Q26" s="13"/>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2455,7 +2464,7 @@
         <v>1472</v>
       </c>
       <c r="P27" s="10"/>
-      <c r="Q27" s="14"/>
+      <c r="Q27" s="13"/>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2475,7 +2484,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="8"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="14"/>
+      <c r="Q28" s="13"/>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2504,7 +2513,7 @@
         <f>SUM(P18:P27)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29" s="13">
         <f>O29-K29+P29</f>
         <v>2.3499999999999091</v>
       </c>
@@ -2557,7 +2566,7 @@
         <v>398</v>
       </c>
       <c r="P30" s="10"/>
-      <c r="Q30" s="14"/>
+      <c r="Q30" s="13"/>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2607,7 +2616,7 @@
         <v>125</v>
       </c>
       <c r="P31" s="10"/>
-      <c r="Q31" s="14"/>
+      <c r="Q31" s="13"/>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2635,7 +2644,7 @@
         <v>194</v>
       </c>
       <c r="P32" s="10"/>
-      <c r="Q32" s="14"/>
+      <c r="Q32" s="13"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2663,7 +2672,7 @@
         <v>61</v>
       </c>
       <c r="P33" s="10"/>
-      <c r="Q33" s="14"/>
+      <c r="Q33" s="13"/>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2691,7 +2700,7 @@
         <v>41</v>
       </c>
       <c r="P34" s="10"/>
-      <c r="Q34" s="14"/>
+      <c r="Q34" s="13"/>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2719,7 +2728,7 @@
         <v>278</v>
       </c>
       <c r="P35" s="10"/>
-      <c r="Q35" s="14"/>
+      <c r="Q35" s="13"/>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2747,7 +2756,7 @@
         <v>144</v>
       </c>
       <c r="P36" s="10"/>
-      <c r="Q36" s="14"/>
+      <c r="Q36" s="13"/>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2775,7 +2784,7 @@
         <v>128</v>
       </c>
       <c r="P37" s="10"/>
-      <c r="Q37" s="14"/>
+      <c r="Q37" s="13"/>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2803,7 +2812,7 @@
         <v>15</v>
       </c>
       <c r="P38" s="10"/>
-      <c r="Q38" s="14"/>
+      <c r="Q38" s="13"/>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2831,7 +2840,7 @@
         <v>57.5</v>
       </c>
       <c r="P39" s="10"/>
-      <c r="Q39" s="14"/>
+      <c r="Q39" s="13"/>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2859,7 +2868,7 @@
         <v>36</v>
       </c>
       <c r="P40" s="10"/>
-      <c r="Q40" s="14"/>
+      <c r="Q40" s="13"/>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2879,7 +2888,7 @@
       <c r="N41" s="7"/>
       <c r="O41" s="8"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="14"/>
+      <c r="Q41" s="13"/>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2899,7 +2908,7 @@
       <c r="N42" s="7"/>
       <c r="O42" s="8"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="14"/>
+      <c r="Q42" s="13"/>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2919,7 +2928,7 @@
       <c r="N43" s="7"/>
       <c r="O43" s="8"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="14"/>
+      <c r="Q43" s="13"/>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -2948,7 +2957,7 @@
         <f>SUM(P30:P37)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="15">
+      <c r="Q44" s="14">
         <f>O44-K44+P44</f>
         <v>-21.670000000000073</v>
       </c>
@@ -2960,7 +2969,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="13"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="7"/>
       <c r="H45" s="10">
         <f>SUM(H7:H44)</f>
@@ -2974,21 +2983,21 @@
       <c r="N45" s="11"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="20">
+      <c r="Q45" s="19">
         <f>SUM(Q7:Q44)</f>
-        <v>-26.160000000000309</v>
+        <v>-66.160000000000309</v>
       </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q47" s="16"/>
+      <c r="Q47" s="15"/>
     </row>
     <row r="51" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q51" s="16"/>
+      <c r="Q51" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:R6"/>
@@ -3011,11 +3020,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116:Q121"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,92 +3050,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="21"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
         <v>5</v>
@@ -3203,7 +3212,7 @@
       <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="8">
@@ -3251,7 +3260,7 @@
       <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="8">
@@ -3853,7 +3862,7 @@
         <f>SUM(P7:P28)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29" s="13">
         <f>O29-K29+P29</f>
         <v>4</v>
       </c>
@@ -3879,7 +3888,7 @@
       <c r="G30" s="7">
         <v>4002</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="17">
         <v>498.96</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -3888,7 +3897,7 @@
       <c r="J30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="17">
         <v>498.96</v>
       </c>
       <c r="L30" s="7" t="s">
@@ -3904,7 +3913,7 @@
         <v>128</v>
       </c>
       <c r="P30" s="10"/>
-      <c r="Q30" s="14"/>
+      <c r="Q30" s="13"/>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -3927,7 +3936,7 @@
       <c r="G31" s="7">
         <v>4002</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="17">
         <v>924.21</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -3936,7 +3945,7 @@
       <c r="J31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="17">
         <v>924.21</v>
       </c>
       <c r="L31" s="7" t="s">
@@ -3952,7 +3961,7 @@
         <v>171</v>
       </c>
       <c r="P31" s="10"/>
-      <c r="Q31" s="14"/>
+      <c r="Q31" s="13"/>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -3973,7 +3982,7 @@
       <c r="G32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="17">
         <v>74.67</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -3982,7 +3991,7 @@
       <c r="J32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="17">
         <v>74.67</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -3998,7 +4007,7 @@
         <v>116</v>
       </c>
       <c r="P32" s="10"/>
-      <c r="Q32" s="14"/>
+      <c r="Q32" s="13"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -4026,7 +4035,7 @@
         <v>424</v>
       </c>
       <c r="P33" s="10"/>
-      <c r="Q33" s="14"/>
+      <c r="Q33" s="13"/>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -4054,7 +4063,7 @@
         <v>240</v>
       </c>
       <c r="P34" s="10"/>
-      <c r="Q34" s="14"/>
+      <c r="Q34" s="13"/>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -4082,7 +4091,7 @@
         <v>129</v>
       </c>
       <c r="P35" s="10"/>
-      <c r="Q35" s="14"/>
+      <c r="Q35" s="13"/>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -4110,7 +4119,7 @@
         <v>136</v>
       </c>
       <c r="P36" s="10"/>
-      <c r="Q36" s="14"/>
+      <c r="Q36" s="13"/>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -4138,7 +4147,7 @@
         <v>55</v>
       </c>
       <c r="P37" s="10"/>
-      <c r="Q37" s="14"/>
+      <c r="Q37" s="13"/>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -4166,7 +4175,7 @@
         <v>52</v>
       </c>
       <c r="P38" s="10"/>
-      <c r="Q38" s="14"/>
+      <c r="Q38" s="13"/>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -4186,7 +4195,7 @@
       <c r="N39" s="7"/>
       <c r="O39" s="8"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="14"/>
+      <c r="Q39" s="13"/>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -4206,7 +4215,7 @@
       <c r="N40" s="7"/>
       <c r="O40" s="8"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="14"/>
+      <c r="Q40" s="13"/>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -4226,7 +4235,7 @@
       <c r="N41" s="7"/>
       <c r="O41" s="8"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="14"/>
+      <c r="Q41" s="13"/>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -4255,7 +4264,7 @@
         <f>SUM(P30:P41)</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q42" s="13">
         <f>O42-K42+P42</f>
         <v>-46.840000000000146</v>
       </c>
@@ -4265,7 +4274,7 @@
       <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="6">
@@ -4308,7 +4317,7 @@
         <v>1259</v>
       </c>
       <c r="P43" s="10"/>
-      <c r="Q43" s="14"/>
+      <c r="Q43" s="13"/>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -4336,7 +4345,7 @@
         <v>394</v>
       </c>
       <c r="P44" s="10"/>
-      <c r="Q44" s="14"/>
+      <c r="Q44" s="13"/>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -4364,7 +4373,7 @@
         <v>1133</v>
       </c>
       <c r="P45" s="10"/>
-      <c r="Q45" s="14"/>
+      <c r="Q45" s="13"/>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -4392,7 +4401,7 @@
         <v>120</v>
       </c>
       <c r="P46" s="10"/>
-      <c r="Q46" s="14"/>
+      <c r="Q46" s="13"/>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -4420,7 +4429,7 @@
         <v>55</v>
       </c>
       <c r="P47" s="10"/>
-      <c r="Q47" s="14"/>
+      <c r="Q47" s="13"/>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -4440,7 +4449,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="8"/>
       <c r="P48" s="10"/>
-      <c r="Q48" s="14"/>
+      <c r="Q48" s="13"/>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -4460,7 +4469,7 @@
       <c r="N49" s="7"/>
       <c r="O49" s="8"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="14"/>
+      <c r="Q49" s="13"/>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -4480,7 +4489,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="8"/>
       <c r="P50" s="10"/>
-      <c r="Q50" s="14"/>
+      <c r="Q50" s="13"/>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -4500,7 +4509,7 @@
       <c r="N51" s="7"/>
       <c r="O51" s="8"/>
       <c r="P51" s="10"/>
-      <c r="Q51" s="14"/>
+      <c r="Q51" s="13"/>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -4529,7 +4538,7 @@
         <f>SUM(P43:P51)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="Q52" s="13">
         <f>O52-K52+P52</f>
         <v>-39</v>
       </c>
@@ -4582,7 +4591,7 @@
         <v>131</v>
       </c>
       <c r="P53" s="10"/>
-      <c r="Q53" s="14"/>
+      <c r="Q53" s="13"/>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -4632,7 +4641,7 @@
         <v>209</v>
       </c>
       <c r="P54" s="10"/>
-      <c r="Q54" s="14"/>
+      <c r="Q54" s="13"/>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -4682,7 +4691,7 @@
         <v>152</v>
       </c>
       <c r="P55" s="10"/>
-      <c r="Q55" s="14"/>
+      <c r="Q55" s="13"/>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -4732,7 +4741,7 @@
         <v>169</v>
       </c>
       <c r="P56" s="10"/>
-      <c r="Q56" s="14"/>
+      <c r="Q56" s="13"/>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -4760,7 +4769,7 @@
         <v>322</v>
       </c>
       <c r="P57" s="10"/>
-      <c r="Q57" s="14"/>
+      <c r="Q57" s="13"/>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -4788,7 +4797,7 @@
         <v>151</v>
       </c>
       <c r="P58" s="10"/>
-      <c r="Q58" s="14"/>
+      <c r="Q58" s="13"/>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -4816,7 +4825,7 @@
         <v>447</v>
       </c>
       <c r="P59" s="10"/>
-      <c r="Q59" s="14"/>
+      <c r="Q59" s="13"/>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4844,7 +4853,7 @@
         <v>28</v>
       </c>
       <c r="P60" s="10"/>
-      <c r="Q60" s="14"/>
+      <c r="Q60" s="13"/>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4872,7 +4881,7 @@
         <v>4</v>
       </c>
       <c r="P61" s="10"/>
-      <c r="Q61" s="14"/>
+      <c r="Q61" s="13"/>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4900,7 +4909,7 @@
         <v>1472</v>
       </c>
       <c r="P62" s="10"/>
-      <c r="Q62" s="14"/>
+      <c r="Q62" s="13"/>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4920,7 +4929,7 @@
       <c r="N63" s="7"/>
       <c r="O63" s="8"/>
       <c r="P63" s="10"/>
-      <c r="Q63" s="14"/>
+      <c r="Q63" s="13"/>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4940,7 +4949,7 @@
       <c r="N64" s="7"/>
       <c r="O64" s="8"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="14"/>
+      <c r="Q64" s="13"/>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4960,7 +4969,7 @@
       <c r="N65" s="7"/>
       <c r="O65" s="8"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="14"/>
+      <c r="Q65" s="13"/>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4980,7 +4989,7 @@
       <c r="N66" s="7"/>
       <c r="O66" s="8"/>
       <c r="P66" s="10"/>
-      <c r="Q66" s="14"/>
+      <c r="Q66" s="13"/>
       <c r="R66" s="3"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -5009,7 +5018,7 @@
         <f>SUM(P53:P66)</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="14">
+      <c r="Q67" s="13">
         <f>O67-K67+P67</f>
         <v>2.3499999999999091</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>398</v>
       </c>
       <c r="P68" s="10"/>
-      <c r="Q68" s="14"/>
+      <c r="Q68" s="13"/>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -5112,7 +5121,7 @@
         <v>125</v>
       </c>
       <c r="P69" s="10"/>
-      <c r="Q69" s="14"/>
+      <c r="Q69" s="13"/>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -5140,7 +5149,7 @@
         <v>194</v>
       </c>
       <c r="P70" s="10"/>
-      <c r="Q70" s="14"/>
+      <c r="Q70" s="13"/>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -5168,7 +5177,7 @@
         <v>61</v>
       </c>
       <c r="P71" s="10"/>
-      <c r="Q71" s="14"/>
+      <c r="Q71" s="13"/>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -5196,7 +5205,7 @@
         <v>41</v>
       </c>
       <c r="P72" s="10"/>
-      <c r="Q72" s="14"/>
+      <c r="Q72" s="13"/>
       <c r="R72" s="3"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -5224,7 +5233,7 @@
         <v>278</v>
       </c>
       <c r="P73" s="10"/>
-      <c r="Q73" s="14"/>
+      <c r="Q73" s="13"/>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -5252,7 +5261,7 @@
         <v>144</v>
       </c>
       <c r="P74" s="10"/>
-      <c r="Q74" s="14"/>
+      <c r="Q74" s="13"/>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -5280,7 +5289,7 @@
         <v>128</v>
       </c>
       <c r="P75" s="10"/>
-      <c r="Q75" s="14"/>
+      <c r="Q75" s="13"/>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -5308,7 +5317,7 @@
         <v>36</v>
       </c>
       <c r="P76" s="10"/>
-      <c r="Q76" s="14"/>
+      <c r="Q76" s="13"/>
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -5328,7 +5337,7 @@
       <c r="N77" s="7"/>
       <c r="O77" s="8"/>
       <c r="P77" s="10"/>
-      <c r="Q77" s="14"/>
+      <c r="Q77" s="13"/>
       <c r="R77" s="3"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -5348,7 +5357,7 @@
       <c r="N78" s="11"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
-      <c r="Q78" s="14"/>
+      <c r="Q78" s="13"/>
       <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -5377,7 +5386,7 @@
         <f>SUM(P68:P78)</f>
         <v>0</v>
       </c>
-      <c r="Q79" s="15">
+      <c r="Q79" s="14">
         <f>O79-K79+P79</f>
         <v>-94.170000000000073</v>
       </c>
@@ -5402,7 +5411,7 @@
       <c r="F80" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="G80" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H80" s="8">
@@ -5430,7 +5439,7 @@
         <v>127</v>
       </c>
       <c r="P80" s="10"/>
-      <c r="Q80" s="14"/>
+      <c r="Q80" s="13"/>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -5458,7 +5467,7 @@
         <v>126</v>
       </c>
       <c r="P81" s="10"/>
-      <c r="Q81" s="14"/>
+      <c r="Q81" s="13"/>
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -5486,7 +5495,7 @@
         <v>69</v>
       </c>
       <c r="P82" s="10"/>
-      <c r="Q82" s="14"/>
+      <c r="Q82" s="13"/>
       <c r="R82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -5514,7 +5523,7 @@
         <v>69</v>
       </c>
       <c r="P83" s="10"/>
-      <c r="Q83" s="14"/>
+      <c r="Q83" s="13"/>
       <c r="R83" s="3"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -5542,7 +5551,7 @@
         <v>2500</v>
       </c>
       <c r="P84" s="10"/>
-      <c r="Q84" s="14"/>
+      <c r="Q84" s="13"/>
       <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -5570,7 +5579,7 @@
         <v>361</v>
       </c>
       <c r="P85" s="10"/>
-      <c r="Q85" s="14"/>
+      <c r="Q85" s="13"/>
       <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -5598,7 +5607,7 @@
         <v>121</v>
       </c>
       <c r="P86" s="10"/>
-      <c r="Q86" s="14"/>
+      <c r="Q86" s="13"/>
       <c r="R86" s="3"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -5626,7 +5635,7 @@
         <v>243</v>
       </c>
       <c r="P87" s="10"/>
-      <c r="Q87" s="14" t="s">
+      <c r="Q87" s="13" t="s">
         <v>112</v>
       </c>
       <c r="R87" s="3"/>
@@ -5656,7 +5665,7 @@
         <v>72</v>
       </c>
       <c r="P88" s="10"/>
-      <c r="Q88" s="14"/>
+      <c r="Q88" s="13"/>
       <c r="R88" s="3"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -5684,7 +5693,7 @@
         <v>242</v>
       </c>
       <c r="P89" s="10"/>
-      <c r="Q89" s="14"/>
+      <c r="Q89" s="13"/>
       <c r="R89" s="3"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -5712,7 +5721,7 @@
         <v>104</v>
       </c>
       <c r="P90" s="10"/>
-      <c r="Q90" s="14"/>
+      <c r="Q90" s="13"/>
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -5740,7 +5749,7 @@
         <v>123</v>
       </c>
       <c r="P91" s="10"/>
-      <c r="Q91" s="14"/>
+      <c r="Q91" s="13"/>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -5760,7 +5769,7 @@
       <c r="N92" s="7"/>
       <c r="O92" s="8"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="14"/>
+      <c r="Q92" s="13"/>
       <c r="R92" s="3"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -5780,7 +5789,7 @@
       <c r="N93" s="7"/>
       <c r="O93" s="8"/>
       <c r="P93" s="10"/>
-      <c r="Q93" s="14"/>
+      <c r="Q93" s="13"/>
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -5800,7 +5809,7 @@
       <c r="N94" s="7"/>
       <c r="O94" s="8"/>
       <c r="P94" s="10"/>
-      <c r="Q94" s="14"/>
+      <c r="Q94" s="13"/>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -5829,7 +5838,7 @@
         <f>SUM(P80:P94)</f>
         <v>0</v>
       </c>
-      <c r="Q95" s="14">
+      <c r="Q95" s="13">
         <f>O95-K95+P95</f>
         <v>-843</v>
       </c>
@@ -5882,7 +5891,7 @@
         <v>93</v>
       </c>
       <c r="P96" s="10"/>
-      <c r="Q96" s="14"/>
+      <c r="Q96" s="13"/>
       <c r="R96" s="3"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -5932,7 +5941,7 @@
         <v>167</v>
       </c>
       <c r="P97" s="10"/>
-      <c r="Q97" s="14"/>
+      <c r="Q97" s="13"/>
       <c r="R97" s="3"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -5982,7 +5991,7 @@
         <v>266</v>
       </c>
       <c r="P98" s="10"/>
-      <c r="Q98" s="14"/>
+      <c r="Q98" s="13"/>
       <c r="R98" s="3"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -6010,7 +6019,7 @@
         <v>8</v>
       </c>
       <c r="P99" s="10"/>
-      <c r="Q99" s="14"/>
+      <c r="Q99" s="13"/>
       <c r="R99" s="3"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -6038,7 +6047,7 @@
         <v>27</v>
       </c>
       <c r="P100" s="10"/>
-      <c r="Q100" s="14"/>
+      <c r="Q100" s="13"/>
       <c r="R100" s="3"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -6066,7 +6075,7 @@
         <v>34</v>
       </c>
       <c r="P101" s="10"/>
-      <c r="Q101" s="14"/>
+      <c r="Q101" s="13"/>
       <c r="R101" s="3"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -6095,7 +6104,7 @@
         <f>SUM(P96:P101)</f>
         <v>0</v>
       </c>
-      <c r="Q102" s="14">
+      <c r="Q102" s="13">
         <f>O102-K102+P102</f>
         <v>-0.28999999999996362</v>
       </c>
@@ -6120,7 +6129,7 @@
       <c r="F103" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G103" s="17" t="s">
+      <c r="G103" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H103" s="8">
@@ -6148,7 +6157,7 @@
         <v>607</v>
       </c>
       <c r="P103" s="10"/>
-      <c r="Q103" s="14"/>
+      <c r="Q103" s="13"/>
       <c r="R103" s="3"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -6176,7 +6185,7 @@
         <v>249</v>
       </c>
       <c r="P104" s="10"/>
-      <c r="Q104" s="14"/>
+      <c r="Q104" s="13"/>
       <c r="R104" s="3"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -6204,7 +6213,7 @@
         <v>49</v>
       </c>
       <c r="P105" s="10"/>
-      <c r="Q105" s="14"/>
+      <c r="Q105" s="13"/>
       <c r="R105" s="3"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -6232,7 +6241,7 @@
         <v>242</v>
       </c>
       <c r="P106" s="10"/>
-      <c r="Q106" s="14"/>
+      <c r="Q106" s="13"/>
       <c r="R106" s="3"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -6260,7 +6269,7 @@
         <v>276</v>
       </c>
       <c r="P107" s="10"/>
-      <c r="Q107" s="14"/>
+      <c r="Q107" s="13"/>
       <c r="R107" s="3"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -6288,7 +6297,7 @@
         <v>153</v>
       </c>
       <c r="P108" s="10"/>
-      <c r="Q108" s="14"/>
+      <c r="Q108" s="13"/>
       <c r="R108" s="3"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -6316,7 +6325,7 @@
         <v>426</v>
       </c>
       <c r="P109" s="10"/>
-      <c r="Q109" s="14"/>
+      <c r="Q109" s="13"/>
       <c r="R109" s="3"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -6344,7 +6353,7 @@
         <v>103</v>
       </c>
       <c r="P110" s="10"/>
-      <c r="Q110" s="14"/>
+      <c r="Q110" s="13"/>
       <c r="R110" s="3"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -6372,7 +6381,7 @@
         <v>357</v>
       </c>
       <c r="P111" s="10"/>
-      <c r="Q111" s="14"/>
+      <c r="Q111" s="13"/>
       <c r="R111" s="3"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -6392,7 +6401,7 @@
       <c r="N112" s="7"/>
       <c r="O112" s="8"/>
       <c r="P112" s="10"/>
-      <c r="Q112" s="14"/>
+      <c r="Q112" s="13"/>
       <c r="R112" s="3"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -6412,7 +6421,7 @@
       <c r="N113" s="7"/>
       <c r="O113" s="8"/>
       <c r="P113" s="10"/>
-      <c r="Q113" s="14"/>
+      <c r="Q113" s="13"/>
       <c r="R113" s="3"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -6432,7 +6441,7 @@
       <c r="N114" s="7"/>
       <c r="O114" s="8"/>
       <c r="P114" s="10"/>
-      <c r="Q114" s="14"/>
+      <c r="Q114" s="13"/>
       <c r="R114" s="3"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -6461,7 +6470,7 @@
         <f>SUM(P103:P114)</f>
         <v>0</v>
       </c>
-      <c r="Q115" s="14">
+      <c r="Q115" s="13">
         <f>O115-K115+P115</f>
         <v>-38</v>
       </c>
@@ -6514,7 +6523,7 @@
         <v>851.1</v>
       </c>
       <c r="P116" s="10"/>
-      <c r="Q116" s="14"/>
+      <c r="Q116" s="13"/>
       <c r="R116" s="3"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -6564,7 +6573,7 @@
         <v>407</v>
       </c>
       <c r="P117" s="10"/>
-      <c r="Q117" s="14"/>
+      <c r="Q117" s="13"/>
       <c r="R117" s="3"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -6584,7 +6593,7 @@
       <c r="N118" s="7"/>
       <c r="O118" s="8"/>
       <c r="P118" s="10"/>
-      <c r="Q118" s="14"/>
+      <c r="Q118" s="13"/>
       <c r="R118" s="3"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -6604,7 +6613,7 @@
       <c r="N119" s="7"/>
       <c r="O119" s="8"/>
       <c r="P119" s="10"/>
-      <c r="Q119" s="14"/>
+      <c r="Q119" s="13"/>
       <c r="R119" s="3"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -6624,7 +6633,7 @@
       <c r="N120" s="7"/>
       <c r="O120" s="8"/>
       <c r="P120" s="10"/>
-      <c r="Q120" s="14"/>
+      <c r="Q120" s="13"/>
       <c r="R120" s="3"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -6653,7 +6662,7 @@
         <f>SUM(P116:P120)</f>
         <v>0</v>
       </c>
-      <c r="Q121" s="14">
+      <c r="Q121" s="13">
         <f>O121-K121+P121</f>
         <v>-0.3100000000001728</v>
       </c>
@@ -6706,7 +6715,7 @@
         <v>218</v>
       </c>
       <c r="P122" s="10"/>
-      <c r="Q122" s="14"/>
+      <c r="Q122" s="13"/>
       <c r="R122" s="3"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -6756,7 +6765,7 @@
         <v>65</v>
       </c>
       <c r="P123" s="10"/>
-      <c r="Q123" s="14"/>
+      <c r="Q123" s="13"/>
       <c r="R123" s="3"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -6784,7 +6793,7 @@
         <v>132</v>
       </c>
       <c r="P124" s="10"/>
-      <c r="Q124" s="14"/>
+      <c r="Q124" s="13"/>
       <c r="R124" s="3"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -6812,7 +6821,7 @@
         <v>93</v>
       </c>
       <c r="P125" s="10"/>
-      <c r="Q125" s="14"/>
+      <c r="Q125" s="13"/>
       <c r="R125" s="3"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -6840,7 +6849,7 @@
         <v>246</v>
       </c>
       <c r="P126" s="10"/>
-      <c r="Q126" s="14"/>
+      <c r="Q126" s="13"/>
       <c r="R126" s="3"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -6868,7 +6877,7 @@
         <v>100</v>
       </c>
       <c r="P127" s="10"/>
-      <c r="Q127" s="14"/>
+      <c r="Q127" s="13"/>
       <c r="R127" s="3"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -6897,7 +6906,7 @@
         <v>45</v>
       </c>
       <c r="P128" s="10"/>
-      <c r="Q128" s="14"/>
+      <c r="Q128" s="13"/>
       <c r="R128" s="3"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -6912,12 +6921,20 @@
       <c r="I129" s="3"/>
       <c r="J129" s="7"/>
       <c r="K129" s="10"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="8"/>
+      <c r="L129" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M129" s="7">
+        <v>1728</v>
+      </c>
+      <c r="N129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O129" s="8">
+        <v>317</v>
+      </c>
       <c r="P129" s="10"/>
-      <c r="Q129" s="14"/>
+      <c r="Q129" s="13"/>
       <c r="R129" s="3"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -6937,7 +6954,7 @@
       <c r="N130" s="7"/>
       <c r="O130" s="8"/>
       <c r="P130" s="10"/>
-      <c r="Q130" s="14"/>
+      <c r="Q130" s="13"/>
       <c r="R130" s="3"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -6957,7 +6974,7 @@
       <c r="N131" s="7"/>
       <c r="O131" s="8"/>
       <c r="P131" s="10"/>
-      <c r="Q131" s="14"/>
+      <c r="Q131" s="13"/>
       <c r="R131" s="3"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -6977,7 +6994,7 @@
       <c r="N132" s="7"/>
       <c r="O132" s="8"/>
       <c r="P132" s="10"/>
-      <c r="Q132" s="14"/>
+      <c r="Q132" s="13"/>
       <c r="R132" s="3"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -6997,7 +7014,7 @@
       <c r="N133" s="7"/>
       <c r="O133" s="8"/>
       <c r="P133" s="10"/>
-      <c r="Q133" s="14"/>
+      <c r="Q133" s="13"/>
       <c r="R133" s="3"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -7020,15 +7037,15 @@
       <c r="N134" s="11"/>
       <c r="O134" s="10">
         <f>SUM(O122:O133)</f>
-        <v>899</v>
+        <v>1216</v>
       </c>
       <c r="P134" s="10">
         <f>SUM(P122:P133)</f>
         <v>0</v>
       </c>
-      <c r="Q134" s="14">
+      <c r="Q134" s="13">
         <f>O134-K134+P134</f>
-        <v>-362.59000000000015</v>
+        <v>-45.590000000000146</v>
       </c>
       <c r="R134" s="3"/>
     </row>
@@ -7049,7 +7066,7 @@
       <c r="N135" s="11"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
-      <c r="Q135" s="14"/>
+      <c r="Q135" s="13"/>
       <c r="R135" s="3"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -7069,16 +7086,16 @@
       <c r="N136" s="11"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
-      <c r="Q136" s="14"/>
+      <c r="Q136" s="13"/>
       <c r="R136" s="3"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
       <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
+      <c r="F137" s="12"/>
       <c r="G137" s="7"/>
       <c r="H137" s="8"/>
       <c r="I137" s="3"/>
@@ -7094,11 +7111,11 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
+      <c r="F138" s="12"/>
       <c r="G138" s="7"/>
       <c r="H138" s="8"/>
       <c r="I138" s="3"/>
@@ -7114,171 +7131,51 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
       <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
+      <c r="F139" s="12"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="8"/>
+      <c r="H139" s="10">
+        <f>SUM(H7:H138)</f>
+        <v>23690.949999999997</v>
+      </c>
       <c r="I139" s="3"/>
       <c r="J139" s="7"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="8"/>
-      <c r="P139" s="8"/>
-      <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
-      <c r="O140" s="10"/>
-      <c r="P140" s="10"/>
-      <c r="Q140" s="12"/>
-      <c r="R140" s="3"/>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="8"/>
-      <c r="P141" s="8"/>
-      <c r="Q141" s="3"/>
-      <c r="R141" s="3"/>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="7"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="10"/>
-      <c r="P143" s="10"/>
-      <c r="Q143" s="15"/>
-      <c r="R143" s="3"/>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="8"/>
-      <c r="L144" s="11"/>
-      <c r="M144" s="11"/>
-      <c r="N144" s="11"/>
-      <c r="O144" s="10"/>
-      <c r="P144" s="10"/>
-      <c r="Q144" s="15"/>
-      <c r="R144" s="3"/>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="10">
-        <f>SUM(H7:H144)</f>
-        <v>23690.949999999997</v>
-      </c>
-      <c r="I145" s="3"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="10">
+      <c r="K139" s="10">
         <f>+K134+K121+K115+K102+K95+K79+K67+K52+K42+K29</f>
         <v>23690.95</v>
       </c>
-      <c r="L145" s="11"/>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-      <c r="O145" s="10">
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="10">
         <f>+O134+O121+O115+O102+O95+O79+O67+O52+O42+O29</f>
-        <v>22273.1</v>
-      </c>
-      <c r="P145" s="10">
+        <v>22590.1</v>
+      </c>
+      <c r="P139" s="10">
         <f>+P134+P121+P115+P102+P95+P79+P67+P52+P42+P29</f>
         <v>0</v>
       </c>
-      <c r="Q145" s="20">
-        <f>SUM(Q7:Q144)</f>
-        <v>-1417.8500000000006</v>
-      </c>
-      <c r="R145" s="3"/>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O146" s="16">
-        <f>K145-O145</f>
-        <v>1417.8500000000022</v>
-      </c>
-      <c r="P146" s="16"/>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q147" s="16"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q151" s="16"/>
+      <c r="Q139" s="19">
+        <f>SUM(Q7:Q138)</f>
+        <v>-1100.8500000000006</v>
+      </c>
+      <c r="R139" s="3"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O140" s="15">
+        <f>K139-O139</f>
+        <v>1100.8500000000022</v>
+      </c>
+      <c r="P140" s="15"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q141" s="15"/>
+    </row>
+    <row r="145" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q145" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:R26"/>
